--- a/public/chancesvitoria.xlsx
+++ b/public/chancesvitoria.xlsx
@@ -4,18 +4,40 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
     <sheet r:id="rId2" sheetId="2" name="Planilha2"/>
+    <sheet r:id="rId3" sheetId="3" name="Planilha3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+  <si>
+    <t>Chances do Vitória</t>
+  </si>
+  <si>
+    <t>Campeão</t>
+  </si>
+  <si>
+    <t>Libertadores</t>
+  </si>
+  <si>
+    <t>Sul Americana</t>
+  </si>
+  <si>
+    <t>Rebaixamento</t>
+  </si>
+  <si>
+    <t>Previsão</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
   <si>
     <t>5 jogos anteriores do vitória</t>
   </si>
@@ -56,7 +78,7 @@
     <t>0.49</t>
   </si>
   <si>
-    <t>Bahía</t>
+    <t>Bahia</t>
   </si>
   <si>
     <t>%</t>
@@ -65,15 +87,12 @@
     <t>Treze</t>
   </si>
   <si>
-    <t>Fortaleza EC</t>
+    <t>fortaleza</t>
   </si>
   <si>
     <t>próximos 5 jogos do vitória</t>
   </si>
   <si>
-    <t>Bahia</t>
-  </si>
-  <si>
     <t>0.33</t>
   </si>
   <si>
@@ -98,7 +117,7 @@
     <t>0.4</t>
   </si>
   <si>
-    <t>Vasco da Gama</t>
+    <t>Vasco</t>
   </si>
   <si>
     <t>0.32</t>
@@ -124,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -142,6 +161,19 @@
       <sz val="7"/>
       <color rgb="FFa31515"/>
       <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -165,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -213,6 +245,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -250,6 +289,51 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -337,51 +421,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -390,88 +429,127 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="56">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -479,40 +557,43 @@
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -819,126 +900,126 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="36" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="36" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="24" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>20</v>
+      <c r="D3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>10</v>
+      <c r="A4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="A6" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -960,162 +1041,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="37" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="36" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="26">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5" t="s">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E3" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="30">
+        <v>3</v>
+      </c>
+      <c r="D5" s="30">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="30">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="D6" s="30">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15">
-        <v>3</v>
-      </c>
-      <c r="D5" s="15">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>14</v>
+      <c r="E7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1124,4 +1205,349 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="16" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="7.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>